--- a/投递情况.xlsx
+++ b/投递情况.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>公司</t>
   </si>
@@ -37,6 +37,9 @@
     <t>阿里巴巴</t>
   </si>
   <si>
+    <t>4_8</t>
+  </si>
+  <si>
     <t>腾讯</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>oppo</t>
   </si>
   <si>
+    <t>4_5</t>
+  </si>
+  <si>
     <t>华为</t>
   </si>
   <si>
@@ -59,9 +65,6 @@
   </si>
   <si>
     <t>字节跳动</t>
-  </si>
-  <si>
-    <t>4_5</t>
   </si>
   <si>
     <t>网易</t>
@@ -97,13 +100,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -135,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -149,14 +152,11 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,15 +481,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="26.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,35 +509,37 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
         <v>3.28</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -547,43 +549,43 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="4">
-        <v>4.5</v>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -591,9 +593,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -603,47 +605,47 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
